--- a/output/1Y_P58_KFSDIV.xlsx
+++ b/output/1Y_P58_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.382</v>
       </c>
       <c r="C2" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D2" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.9583</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="F3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="H3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0342</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>12.2036</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E4" s="1">
-        <v>1643.8632</v>
+        <v>1640.5739</v>
       </c>
       <c r="F4" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1665</v>
+        <v>12.1909</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9709.2554</v>
+        <v>-9709.836499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E5" s="1">
-        <v>2463.2936</v>
+        <v>2458.3625</v>
       </c>
       <c r="F5" s="1">
-        <v>776.879</v>
+        <v>775.319</v>
       </c>
       <c r="H5" s="1">
-        <v>31809.9878</v>
+        <v>31682.8837</v>
       </c>
       <c r="I5" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="J5" s="1">
-        <v>32100.7324</v>
+        <v>31973.0472</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.1788</v>
+        <v>12.2032</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10032.305</v>
+        <v>-10032.2404</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0679</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.4338</v>
       </c>
       <c r="C6" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D6" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E6" s="1">
-        <v>3240.1726</v>
+        <v>3233.6815</v>
       </c>
       <c r="F6" s="1">
-        <v>746.7958</v>
+        <v>745.2986</v>
       </c>
       <c r="H6" s="1">
-        <v>43527.8305</v>
+        <v>43353.6442</v>
       </c>
       <c r="I6" s="1">
-        <v>258.4397</v>
+        <v>257.9231</v>
       </c>
       <c r="J6" s="1">
-        <v>43786.2702</v>
+        <v>43611.5672</v>
       </c>
       <c r="K6" s="1">
-        <v>40032.305</v>
+        <v>40032.2404</v>
       </c>
       <c r="L6" s="1">
-        <v>12.355</v>
+        <v>12.3798</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10032.305</v>
+        <v>-10032.2404</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>12.9657</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E7" s="1">
-        <v>3986.9684</v>
+        <v>3978.98</v>
       </c>
       <c r="F7" s="1">
-        <v>773.7573</v>
+        <v>772.2038</v>
       </c>
       <c r="H7" s="1">
-        <v>51693.8356</v>
+        <v>51487.2059</v>
       </c>
       <c r="I7" s="1">
-        <v>226.1347</v>
+        <v>225.6827</v>
       </c>
       <c r="J7" s="1">
-        <v>51919.9703</v>
+        <v>51712.8886</v>
       </c>
       <c r="K7" s="1">
-        <v>50064.6099</v>
+        <v>50064.4808</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5571</v>
+        <v>12.5822</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>874.8466</v>
+        <v>873.0940000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9157.4584</v>
+        <v>-9159.1464</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0347</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.3568</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E8" s="1">
-        <v>4760.7257</v>
+        <v>4751.1839</v>
       </c>
       <c r="F8" s="1">
-        <v>762.0173</v>
+        <v>760.4648</v>
       </c>
       <c r="H8" s="1">
-        <v>63588.0604</v>
+        <v>63333.756</v>
       </c>
       <c r="I8" s="1">
-        <v>1068.6764</v>
+        <v>1066.5363</v>
       </c>
       <c r="J8" s="1">
-        <v>64656.7367</v>
+        <v>64400.2923</v>
       </c>
       <c r="K8" s="1">
-        <v>60096.9149</v>
+        <v>60096.7212</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6235</v>
+        <v>12.6488</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10178.1127</v>
+        <v>-10177.7561</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0442</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.2487</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E9" s="1">
-        <v>5522.743</v>
+        <v>5511.6486</v>
       </c>
       <c r="F9" s="1">
-        <v>768.2348</v>
+        <v>766.6744</v>
       </c>
       <c r="H9" s="1">
-        <v>73169.1646</v>
+        <v>72876.1203</v>
       </c>
       <c r="I9" s="1">
-        <v>890.5636</v>
+        <v>888.7803</v>
       </c>
       <c r="J9" s="1">
-        <v>74059.7282</v>
+        <v>73764.9005</v>
       </c>
       <c r="K9" s="1">
-        <v>70275.0276</v>
+        <v>70274.47719999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7247</v>
+        <v>12.7502</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10178.1127</v>
+        <v>-10177.7561</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.3991</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E10" s="1">
-        <v>6290.9778</v>
+        <v>6278.323</v>
       </c>
       <c r="F10" s="1">
-        <v>759.6117</v>
+        <v>758.0688</v>
       </c>
       <c r="H10" s="1">
-        <v>84293.44040000001</v>
+        <v>83955.6189</v>
       </c>
       <c r="I10" s="1">
-        <v>712.4509</v>
+        <v>711.0242</v>
       </c>
       <c r="J10" s="1">
-        <v>85005.8913</v>
+        <v>84666.6431</v>
       </c>
       <c r="K10" s="1">
-        <v>80453.1403</v>
+        <v>80452.23330000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7887</v>
+        <v>12.8143</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1988.1875</v>
+        <v>1984.1935</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8189.9253</v>
+        <v>-8193.562599999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0113</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.5985</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E11" s="1">
-        <v>7050.5895</v>
+        <v>7036.3918</v>
       </c>
       <c r="F11" s="1">
-        <v>797.2087</v>
+        <v>795.4934</v>
       </c>
       <c r="H11" s="1">
-        <v>95877.4406</v>
+        <v>95492.9844</v>
       </c>
       <c r="I11" s="1">
-        <v>2522.5256</v>
+        <v>2517.4617</v>
       </c>
       <c r="J11" s="1">
-        <v>98399.9663</v>
+        <v>98010.446</v>
       </c>
       <c r="K11" s="1">
-        <v>90631.2531</v>
+        <v>90629.9893</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8544</v>
+        <v>12.8802</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10840.8419</v>
+        <v>-10839.1539</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0357</v>
+        <v>0.0353</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.6955</v>
       </c>
       <c r="C12" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D12" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E12" s="1">
-        <v>7847.7981</v>
+        <v>7831.8852</v>
       </c>
       <c r="F12" s="1">
-        <v>791.5623000000001</v>
+        <v>789.8588</v>
       </c>
       <c r="H12" s="1">
-        <v>107479.5189</v>
+        <v>107046.9899</v>
       </c>
       <c r="I12" s="1">
-        <v>1681.6838</v>
+        <v>1678.3078</v>
       </c>
       <c r="J12" s="1">
-        <v>109161.2027</v>
+        <v>108725.2977</v>
       </c>
       <c r="K12" s="1">
-        <v>101472.0949</v>
+        <v>101469.1432</v>
       </c>
       <c r="L12" s="1">
-        <v>12.93</v>
+        <v>12.9559</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10840.8419</v>
+        <v>-10839.1539</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.007</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.3398</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E13" s="1">
-        <v>8639.3604</v>
+        <v>8621.744000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>812.669</v>
+        <v>810.9194</v>
       </c>
       <c r="H13" s="1">
-        <v>115247.3403</v>
+        <v>114782.1404</v>
       </c>
       <c r="I13" s="1">
-        <v>840.8419</v>
+        <v>839.1539</v>
       </c>
       <c r="J13" s="1">
-        <v>116088.1822</v>
+        <v>115621.2943</v>
       </c>
       <c r="K13" s="1">
-        <v>112312.9368</v>
+        <v>112308.2971</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0001</v>
+        <v>13.0262</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2118.9055</v>
+        <v>2114.609</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8721.936400000001</v>
+        <v>-8724.544900000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0258</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.8469</v>
       </c>
       <c r="C14" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D14" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E14" s="1">
-        <v>9452.029399999999</v>
+        <v>9432.663399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9452.029399999999</v>
+        <v>-9432.663399999999</v>
       </c>
       <c r="H14" s="1">
-        <v>121429.2769</v>
+        <v>120938.0641</v>
       </c>
       <c r="I14" s="1">
-        <v>2118.9055</v>
+        <v>2114.609</v>
       </c>
       <c r="J14" s="1">
-        <v>123548.1824</v>
+        <v>123052.6731</v>
       </c>
       <c r="K14" s="1">
-        <v>123153.7787</v>
+        <v>123147.451</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0293</v>
+        <v>13.0554</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121429.2769</v>
+        <v>120938.0641</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0201</v>
+        <v>-0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.382</v>
       </c>
       <c r="C2" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D2" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.9583</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="F3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0342</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>12.2036</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E4" s="1">
-        <v>1643.8632</v>
+        <v>1640.5739</v>
       </c>
       <c r="F4" s="1">
-        <v>814.4278</v>
+        <v>817.7885</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1665</v>
+        <v>12.1909</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9648.206</v>
+        <v>-9709.836499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E5" s="1">
-        <v>2458.291</v>
+        <v>2458.3625</v>
       </c>
       <c r="F5" s="1">
-        <v>639.2186</v>
+        <v>645.348</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31745.3866</v>
+        <v>31682.8837</v>
       </c>
       <c r="I5" s="1">
-        <v>351.794</v>
+        <v>290.1635</v>
       </c>
       <c r="J5" s="1">
-        <v>32097.1806</v>
+        <v>31973.0472</v>
       </c>
       <c r="K5" s="1">
-        <v>29938.9506</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.1788</v>
+        <v>12.2032</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8254.6134</v>
+        <v>-8350.480799999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0677</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.4338</v>
       </c>
       <c r="C6" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D6" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E6" s="1">
-        <v>3097.5096</v>
+        <v>3103.7105</v>
       </c>
       <c r="F6" s="1">
-        <v>624.4455</v>
+        <v>625.7124</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41611.3245</v>
+        <v>41611.1361</v>
       </c>
       <c r="I6" s="1">
-        <v>2097.1806</v>
+        <v>1939.6827</v>
       </c>
       <c r="J6" s="1">
-        <v>43708.5051</v>
+        <v>43550.8188</v>
       </c>
       <c r="K6" s="1">
-        <v>38193.564</v>
+        <v>38350.4808</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3304</v>
+        <v>12.3563</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8388.675499999999</v>
+        <v>-8422.5272</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0383</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>12.9657</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E7" s="1">
-        <v>3721.9551</v>
+        <v>3729.4229</v>
       </c>
       <c r="F7" s="1">
-        <v>905.6393</v>
+        <v>907.4339</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48257.7528</v>
+        <v>48257.9866</v>
       </c>
       <c r="I7" s="1">
-        <v>3708.5051</v>
+        <v>3517.1555</v>
       </c>
       <c r="J7" s="1">
-        <v>51966.2579</v>
+        <v>51775.142</v>
       </c>
       <c r="K7" s="1">
-        <v>46582.2395</v>
+        <v>46773.008</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5155</v>
+        <v>12.5416</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>836.3276</v>
+        <v>838.0018</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10905.9196</v>
+        <v>-10951.1074</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0324</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.3568</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E8" s="1">
-        <v>4627.5943</v>
+        <v>4636.8568</v>
       </c>
       <c r="F8" s="1">
-        <v>613.1819</v>
+        <v>614.4166</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61809.8521</v>
+        <v>61809.7652</v>
       </c>
       <c r="I8" s="1">
-        <v>2802.5855</v>
+        <v>2566.048</v>
       </c>
       <c r="J8" s="1">
-        <v>64612.4377</v>
+        <v>64375.8132</v>
       </c>
       <c r="K8" s="1">
-        <v>58324.4867</v>
+        <v>58562.1173</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6036</v>
+        <v>12.6297</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8190.1479</v>
+        <v>-8223.106100000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0427</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.2487</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E9" s="1">
-        <v>5240.7762</v>
+        <v>5251.2734</v>
       </c>
       <c r="F9" s="1">
-        <v>797.5521</v>
+        <v>799.1569</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69433.4721</v>
+        <v>69433.3876</v>
       </c>
       <c r="I9" s="1">
-        <v>4612.4377</v>
+        <v>4342.942</v>
       </c>
       <c r="J9" s="1">
-        <v>74045.90979999999</v>
+        <v>73776.3296</v>
       </c>
       <c r="K9" s="1">
-        <v>66514.6345</v>
+        <v>66785.2233</v>
       </c>
       <c r="L9" s="1">
-        <v>12.6918</v>
+        <v>12.7179</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10566.5279</v>
+        <v>-10608.9677</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0076</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.3991</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E10" s="1">
-        <v>6038.3283</v>
+        <v>6050.4303</v>
       </c>
       <c r="F10" s="1">
-        <v>678.5408</v>
+        <v>679.9003</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80908.1646</v>
+        <v>80908.16959999999</v>
       </c>
       <c r="I10" s="1">
-        <v>4045.9098</v>
+        <v>3733.9742</v>
       </c>
       <c r="J10" s="1">
-        <v>84954.07429999999</v>
+        <v>84642.14380000001</v>
       </c>
       <c r="K10" s="1">
-        <v>77081.16250000001</v>
+        <v>77394.1911</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7653</v>
+        <v>12.7915</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1886.6794</v>
+        <v>1890.4584</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7205.156</v>
+        <v>-7237.8146</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0108</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.5985</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E11" s="1">
-        <v>6716.869</v>
+        <v>6730.3306</v>
       </c>
       <c r="F11" s="1">
-        <v>636.8832</v>
+        <v>638.1603</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91339.3437</v>
+        <v>91339.3358</v>
       </c>
       <c r="I11" s="1">
-        <v>6840.7538</v>
+        <v>6496.1596</v>
       </c>
       <c r="J11" s="1">
-        <v>98180.0975</v>
+        <v>97835.4954</v>
       </c>
       <c r="K11" s="1">
-        <v>86172.9979</v>
+        <v>86522.4641</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8293</v>
+        <v>12.8556</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8660.656300000001</v>
+        <v>-8695.3801</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.034</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.6955</v>
       </c>
       <c r="C12" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D12" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E12" s="1">
-        <v>7353.7523</v>
+        <v>7368.4909</v>
       </c>
       <c r="F12" s="1">
-        <v>678.083</v>
+        <v>679.4456</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100713.314</v>
+        <v>100713.2699</v>
       </c>
       <c r="I12" s="1">
-        <v>8180.0975</v>
+        <v>7800.7795</v>
       </c>
       <c r="J12" s="1">
-        <v>108893.4114</v>
+        <v>108514.0494</v>
       </c>
       <c r="K12" s="1">
-        <v>94833.6542</v>
+        <v>95217.84420000001</v>
       </c>
       <c r="L12" s="1">
-        <v>12.896</v>
+        <v>12.9223</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9286.686</v>
+        <v>-9323.9637</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0066</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.3398</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E13" s="1">
-        <v>8031.8353</v>
+        <v>8047.9364</v>
       </c>
       <c r="F13" s="1">
-        <v>963.8018</v>
+        <v>965.7418</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>107143.0762</v>
+        <v>107142.9826</v>
       </c>
       <c r="I13" s="1">
-        <v>8893.411400000001</v>
+        <v>8476.8158</v>
       </c>
       <c r="J13" s="1">
-        <v>116036.4876</v>
+        <v>115619.7984</v>
       </c>
       <c r="K13" s="1">
-        <v>104120.3402</v>
+        <v>104541.8079</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9635</v>
+        <v>12.9899</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>1985.5131</v>
+        <v>1989.4925</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10871.4107</v>
+        <v>-10919.0955</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.024</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.8469</v>
       </c>
       <c r="C14" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D14" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E14" s="1">
-        <v>8995.6371</v>
+        <v>9013.6783</v>
       </c>
       <c r="F14" s="1">
-        <v>-8995.6371</v>
+        <v>-9013.6783</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115566.0505</v>
+        <v>115566.1717</v>
       </c>
       <c r="I14" s="1">
-        <v>8022.0007</v>
+        <v>7557.7203</v>
       </c>
       <c r="J14" s="1">
-        <v>123588.0512</v>
+        <v>123123.8919</v>
       </c>
       <c r="K14" s="1">
-        <v>116977.264</v>
+        <v>117450.396</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0038</v>
+        <v>13.0302</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115566.0505</v>
+        <v>115566.1717</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0194</v>
+        <v>-0.0199</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.382</v>
       </c>
       <c r="C2" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D2" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.9583</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="F3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0342</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>12.2036</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E4" s="1">
-        <v>1643.8632</v>
+        <v>1640.5739</v>
       </c>
       <c r="F4" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1665</v>
+        <v>12.1909</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9709.2554</v>
+        <v>-9709.836499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E5" s="1">
-        <v>2463.2936</v>
+        <v>2458.3625</v>
       </c>
       <c r="F5" s="1">
-        <v>657.5249</v>
+        <v>668.7035</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31809.9878</v>
+        <v>31682.8837</v>
       </c>
       <c r="I5" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="J5" s="1">
-        <v>32100.7324</v>
+        <v>31973.0472</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.1788</v>
+        <v>12.2032</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8491.0134</v>
+        <v>-8652.6895</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0679</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.4338</v>
       </c>
       <c r="C6" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D6" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E6" s="1">
-        <v>3120.8185</v>
+        <v>3127.066</v>
       </c>
       <c r="F6" s="1">
-        <v>638.5427</v>
+        <v>639.8381000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41924.451</v>
+        <v>41924.2612</v>
       </c>
       <c r="I6" s="1">
-        <v>1799.7312</v>
+        <v>1637.4739</v>
       </c>
       <c r="J6" s="1">
-        <v>43724.1822</v>
+        <v>43561.7352</v>
       </c>
       <c r="K6" s="1">
-        <v>38491.0134</v>
+        <v>38652.6895</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3336</v>
+        <v>12.3607</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8578.055200000001</v>
+        <v>-8612.668299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0386</v>
+        <v>0.0379</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>12.9657</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E7" s="1">
-        <v>3759.3612</v>
+        <v>3766.9041</v>
       </c>
       <c r="F7" s="1">
-        <v>926.4652</v>
+        <v>928.3013</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48742.7493</v>
+        <v>48742.9854</v>
       </c>
       <c r="I7" s="1">
-        <v>3221.6759</v>
+        <v>3024.8056</v>
       </c>
       <c r="J7" s="1">
-        <v>51964.4252</v>
+        <v>51767.791</v>
       </c>
       <c r="K7" s="1">
-        <v>47069.0687</v>
+        <v>47265.3578</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5205</v>
+        <v>12.5475</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>842.621</v>
+        <v>844.3078</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11169.6485</v>
+        <v>-11215.9044</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0328</v>
+        <v>-0.0335</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.3568</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E8" s="1">
-        <v>4685.8264</v>
+        <v>4695.2054</v>
       </c>
       <c r="F8" s="1">
-        <v>634.2199000000001</v>
+        <v>635.4968</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>62587.6455</v>
+        <v>62587.5575</v>
       </c>
       <c r="I8" s="1">
-        <v>2052.0274</v>
+        <v>1808.9012</v>
       </c>
       <c r="J8" s="1">
-        <v>64639.6729</v>
+        <v>64396.4586</v>
       </c>
       <c r="K8" s="1">
-        <v>59081.3382</v>
+        <v>59325.5701</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6085</v>
+        <v>12.6354</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8471.1484</v>
+        <v>-8505.235500000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0432</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.2487</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E9" s="1">
-        <v>5320.0463</v>
+        <v>5330.7022</v>
       </c>
       <c r="F9" s="1">
-        <v>825.0161000000001</v>
+        <v>826.6761</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70483.6969</v>
+        <v>70483.61109999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3580.879</v>
+        <v>3303.6657</v>
       </c>
       <c r="J9" s="1">
-        <v>74064.5759</v>
+        <v>73787.27680000001</v>
       </c>
       <c r="K9" s="1">
-        <v>67552.4866</v>
+        <v>67830.80560000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.6977</v>
+        <v>12.7246</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10930.391</v>
+        <v>-10974.2906</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0077</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.3991</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E10" s="1">
-        <v>6145.0624</v>
+        <v>6157.3783</v>
       </c>
       <c r="F10" s="1">
-        <v>707.7231</v>
+        <v>709.1411000000001</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82338.3052</v>
+        <v>82338.3103</v>
       </c>
       <c r="I10" s="1">
-        <v>2650.4881</v>
+        <v>2329.3751</v>
       </c>
       <c r="J10" s="1">
-        <v>84988.7933</v>
+        <v>84667.6854</v>
       </c>
       <c r="K10" s="1">
-        <v>78482.87760000001</v>
+        <v>78805.0962</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7717</v>
+        <v>12.7985</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1915.2167</v>
+        <v>1919.0528</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7567.6364</v>
+        <v>-7601.8051</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.011</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.5985</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E11" s="1">
-        <v>6852.7855</v>
+        <v>6866.5195</v>
       </c>
       <c r="F11" s="1">
-        <v>668.6517</v>
+        <v>669.9924</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93187.60370000001</v>
+        <v>93187.59570000001</v>
       </c>
       <c r="I11" s="1">
-        <v>5082.8516</v>
+        <v>4727.57</v>
       </c>
       <c r="J11" s="1">
-        <v>98270.45540000001</v>
+        <v>97915.16559999999</v>
       </c>
       <c r="K11" s="1">
-        <v>87965.7306</v>
+        <v>88325.9541</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8365</v>
+        <v>12.8633</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9092.660400000001</v>
+        <v>-9129.116</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0345</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.6955</v>
       </c>
       <c r="C12" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D12" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E12" s="1">
-        <v>7521.4372</v>
+        <v>7536.5119</v>
       </c>
       <c r="F12" s="1">
-        <v>714.2362000000001</v>
+        <v>715.6713</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103009.8435</v>
+        <v>103009.7984</v>
       </c>
       <c r="I12" s="1">
-        <v>5990.1913</v>
+        <v>5598.454</v>
       </c>
       <c r="J12" s="1">
-        <v>109000.0348</v>
+        <v>108608.2524</v>
       </c>
       <c r="K12" s="1">
-        <v>97058.391</v>
+        <v>97455.0701</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9042</v>
+        <v>12.9311</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9781.821900000001</v>
+        <v>-9821.085800000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0067</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.3398</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E13" s="1">
-        <v>8235.6734</v>
+        <v>8252.183199999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1011.5135</v>
+        <v>1013.5493</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109862.2364</v>
+        <v>109862.1404</v>
       </c>
       <c r="I13" s="1">
-        <v>6208.3694</v>
+        <v>5777.3682</v>
       </c>
       <c r="J13" s="1">
-        <v>116070.6057</v>
+        <v>115639.5086</v>
       </c>
       <c r="K13" s="1">
-        <v>106840.2129</v>
+        <v>107276.1559</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9729</v>
+        <v>12.9997</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2030.7881</v>
+        <v>2034.8582</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11462.5993</v>
+        <v>-11512.7487</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0246</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.8469</v>
       </c>
       <c r="C14" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D14" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E14" s="1">
-        <v>9247.186900000001</v>
+        <v>9265.7325</v>
       </c>
       <c r="F14" s="1">
-        <v>-9247.186900000001</v>
+        <v>-9265.7325</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118797.6853</v>
+        <v>118797.8099</v>
       </c>
       <c r="I14" s="1">
-        <v>4745.7701</v>
+        <v>4264.6195</v>
       </c>
       <c r="J14" s="1">
-        <v>123543.4554</v>
+        <v>123062.4294</v>
       </c>
       <c r="K14" s="1">
-        <v>120333.6003</v>
+        <v>120823.7628</v>
       </c>
       <c r="L14" s="1">
-        <v>13.013</v>
+        <v>13.0399</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118797.6853</v>
+        <v>118797.8099</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.02</v>
+        <v>-0.0205</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.382</v>
       </c>
       <c r="C2" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D2" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.9583</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="F3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0342</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>12.2036</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E4" s="1">
-        <v>1643.8632</v>
+        <v>1640.5739</v>
       </c>
       <c r="F4" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1665</v>
+        <v>12.1909</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9709.2554</v>
+        <v>-9709.836499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E5" s="1">
-        <v>2463.2936</v>
+        <v>2458.3625</v>
       </c>
       <c r="F5" s="1">
-        <v>680.9892</v>
+        <v>692.2148</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31809.9878</v>
+        <v>31682.8837</v>
       </c>
       <c r="I5" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="J5" s="1">
-        <v>32100.7324</v>
+        <v>31973.0472</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.1788</v>
+        <v>12.2032</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8794.022199999999</v>
+        <v>-8956.9138</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0679</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.4338</v>
       </c>
       <c r="C6" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D6" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E6" s="1">
-        <v>3144.2828</v>
+        <v>3150.5773</v>
       </c>
       <c r="F6" s="1">
-        <v>652.8595</v>
+        <v>654.1837</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42239.6659</v>
+        <v>42239.4747</v>
       </c>
       <c r="I6" s="1">
-        <v>1496.7224</v>
+        <v>1333.2497</v>
       </c>
       <c r="J6" s="1">
-        <v>43736.3883</v>
+        <v>43572.7243</v>
       </c>
       <c r="K6" s="1">
-        <v>38794.0222</v>
+        <v>38956.9138</v>
       </c>
       <c r="L6" s="1">
-        <v>12.338</v>
+        <v>12.365</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8770.3842</v>
+        <v>-8805.770500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0389</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>12.9657</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E7" s="1">
-        <v>3797.1423</v>
+        <v>3804.761</v>
       </c>
       <c r="F7" s="1">
-        <v>947.6961</v>
+        <v>949.5744999999999</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49232.6078</v>
+        <v>49232.8462</v>
       </c>
       <c r="I7" s="1">
-        <v>2726.3382</v>
+        <v>2527.4791</v>
       </c>
       <c r="J7" s="1">
-        <v>51958.946</v>
+        <v>51760.3254</v>
       </c>
       <c r="K7" s="1">
-        <v>47564.4064</v>
+        <v>47762.6843</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5264</v>
+        <v>12.5534</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>848.9563000000001</v>
+        <v>850.6559</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11438.5865</v>
+        <v>-11485.9314</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0331</v>
+        <v>-0.0338</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.3568</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E8" s="1">
-        <v>4744.8384</v>
+        <v>4754.3355</v>
       </c>
       <c r="F8" s="1">
-        <v>655.8079</v>
+        <v>657.1282</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63375.8569</v>
+        <v>63375.7677</v>
       </c>
       <c r="I8" s="1">
-        <v>1287.7518</v>
+        <v>1041.5477</v>
       </c>
       <c r="J8" s="1">
-        <v>64663.6087</v>
+        <v>64417.3155</v>
       </c>
       <c r="K8" s="1">
-        <v>59851.9492</v>
+        <v>60099.2716</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6141</v>
+        <v>12.6409</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8759.495199999999</v>
+        <v>-8794.7407</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0437</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.2487</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E9" s="1">
-        <v>5400.6463</v>
+        <v>5411.4637</v>
       </c>
       <c r="F9" s="1">
-        <v>853.3036</v>
+        <v>855.0204</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71551.5422</v>
+        <v>71551.4552</v>
       </c>
       <c r="I9" s="1">
-        <v>2528.2565</v>
+        <v>2246.807</v>
       </c>
       <c r="J9" s="1">
-        <v>74079.7988</v>
+        <v>73798.2622</v>
       </c>
       <c r="K9" s="1">
-        <v>68611.44439999999</v>
+        <v>68894.0123</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7043</v>
+        <v>12.7311</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11305.1634</v>
+        <v>-11350.5665</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0078</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.3991</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E10" s="1">
-        <v>6253.9499</v>
+        <v>6266.4841</v>
       </c>
       <c r="F10" s="1">
-        <v>737.958</v>
+        <v>739.4366</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83797.2997</v>
+        <v>83797.3049</v>
       </c>
       <c r="I10" s="1">
-        <v>1223.0932</v>
+        <v>896.2405</v>
       </c>
       <c r="J10" s="1">
-        <v>85020.39290000001</v>
+        <v>84693.5454</v>
       </c>
       <c r="K10" s="1">
-        <v>79916.6078</v>
+        <v>80244.5788</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7786</v>
+        <v>12.8054</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1944.2327</v>
+        <v>1948.1269</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7943.7403</v>
+        <v>-7979.4747</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0112</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.5985</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E11" s="1">
-        <v>6991.9079</v>
+        <v>7005.9206</v>
       </c>
       <c r="F11" s="1">
-        <v>701.744</v>
+        <v>703.1511</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95079.45909999999</v>
+        <v>95079.4509</v>
       </c>
       <c r="I11" s="1">
-        <v>3279.3528</v>
+        <v>2916.7658</v>
       </c>
       <c r="J11" s="1">
-        <v>98358.8119</v>
+        <v>97996.2167</v>
       </c>
       <c r="K11" s="1">
-        <v>89804.5808</v>
+        <v>90172.1804</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8441</v>
+        <v>12.8709</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9542.666300000001</v>
+        <v>-9580.9259</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0351</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.6955</v>
       </c>
       <c r="C12" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D12" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E12" s="1">
-        <v>7693.6519</v>
+        <v>7709.0717</v>
       </c>
       <c r="F12" s="1">
-        <v>752.0672</v>
+        <v>753.5783</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105368.4096</v>
+        <v>105368.3636</v>
       </c>
       <c r="I12" s="1">
-        <v>3736.6865</v>
+        <v>3335.8399</v>
       </c>
       <c r="J12" s="1">
-        <v>109105.0962</v>
+        <v>108704.2034</v>
       </c>
       <c r="K12" s="1">
-        <v>99347.24709999999</v>
+        <v>99753.1064</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9129</v>
+        <v>12.9397</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10299.937</v>
+        <v>-10341.2792</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0069</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.3398</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E13" s="1">
-        <v>8445.7192</v>
+        <v>8462.65</v>
       </c>
       <c r="F13" s="1">
-        <v>1007.2677</v>
+        <v>972.1738</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112664.2044</v>
+        <v>112664.1059</v>
       </c>
       <c r="I13" s="1">
-        <v>3436.7495</v>
+        <v>2994.5607</v>
       </c>
       <c r="J13" s="1">
-        <v>116100.9539</v>
+        <v>115658.6666</v>
       </c>
       <c r="K13" s="1">
-        <v>109647.1841</v>
+        <v>110094.3856</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9826</v>
+        <v>13.0094</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2077.286</v>
+        <v>2081.4494</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11359.4635</v>
+        <v>-10913.1113</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0252</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.8469</v>
       </c>
       <c r="C14" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D14" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E14" s="1">
-        <v>9452.986800000001</v>
+        <v>9434.8238</v>
       </c>
       <c r="F14" s="1">
-        <v>-9452.986800000001</v>
+        <v>-9434.8238</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121441.5767</v>
+        <v>120965.7627</v>
       </c>
       <c r="I14" s="1">
-        <v>2077.286</v>
+        <v>2081.4494</v>
       </c>
       <c r="J14" s="1">
-        <v>123518.8627</v>
+        <v>123047.2121</v>
       </c>
       <c r="K14" s="1">
-        <v>123083.9336</v>
+        <v>123088.9463</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0206</v>
+        <v>13.0462</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121441.5767</v>
+        <v>120965.7627</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0205</v>
+        <v>-0.0208</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.382</v>
       </c>
       <c r="C2" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D2" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.9583</v>
       </c>
       <c r="C3" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E3" s="1">
-        <v>807.624</v>
+        <v>806.0096</v>
       </c>
       <c r="F3" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9657.8097</v>
+        <v>9619.241099999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0342</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>12.2036</v>
       </c>
       <c r="C4" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D4" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E4" s="1">
-        <v>1643.8632</v>
+        <v>1640.5739</v>
       </c>
       <c r="F4" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20061.0494</v>
+        <v>19980.8779</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1665</v>
+        <v>12.1909</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9709.2554</v>
+        <v>-9709.836499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0205</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E5" s="1">
-        <v>2463.2936</v>
+        <v>2458.3625</v>
       </c>
       <c r="F5" s="1">
-        <v>704.6096</v>
+        <v>715.8825000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31809.9878</v>
+        <v>31682.8837</v>
       </c>
       <c r="I5" s="1">
-        <v>290.7446</v>
+        <v>290.1635</v>
       </c>
       <c r="J5" s="1">
-        <v>32100.7324</v>
+        <v>31973.0472</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.1788</v>
+        <v>12.2032</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9099.045899999999</v>
+        <v>-9263.1612</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0679</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.4338</v>
       </c>
       <c r="C6" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D6" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E6" s="1">
-        <v>3167.9031</v>
+        <v>3174.2449</v>
       </c>
       <c r="F6" s="1">
-        <v>667.3981</v>
+        <v>668.7515</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42556.977</v>
+        <v>42556.7843</v>
       </c>
       <c r="I6" s="1">
-        <v>1191.6987</v>
+        <v>1027.0023</v>
       </c>
       <c r="J6" s="1">
-        <v>43748.6756</v>
+        <v>43583.7866</v>
       </c>
       <c r="K6" s="1">
-        <v>39099.0459</v>
+        <v>39263.1612</v>
       </c>
       <c r="L6" s="1">
-        <v>12.3422</v>
+        <v>12.3693</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8965.692300000001</v>
+        <v>-9001.863799999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0391</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>12.9657</v>
       </c>
       <c r="C7" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D7" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E7" s="1">
-        <v>3835.3012</v>
+        <v>3842.9965</v>
       </c>
       <c r="F7" s="1">
-        <v>942.95</v>
+        <v>925.6016</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49727.3648</v>
+        <v>49727.6056</v>
       </c>
       <c r="I7" s="1">
-        <v>2226.0064</v>
+        <v>2025.1385</v>
       </c>
       <c r="J7" s="1">
-        <v>51953.3711</v>
+        <v>51752.7441</v>
       </c>
       <c r="K7" s="1">
-        <v>48064.7382</v>
+        <v>48265.025</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5322</v>
+        <v>12.5592</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>855.3338</v>
+        <v>857.0461</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11370.6725</v>
+        <v>-11168.0924</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0334</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.3568</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E8" s="1">
-        <v>4778.2512</v>
+        <v>4768.5981</v>
       </c>
       <c r="F8" s="1">
-        <v>704.3451</v>
+        <v>724.9798</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63822.1452</v>
+        <v>63565.8892</v>
       </c>
       <c r="I8" s="1">
-        <v>855.3338</v>
+        <v>857.0461</v>
       </c>
       <c r="J8" s="1">
-        <v>64677.479</v>
+        <v>64422.9353</v>
       </c>
       <c r="K8" s="1">
-        <v>60290.7446</v>
+        <v>60290.1635</v>
       </c>
       <c r="L8" s="1">
-        <v>12.6177</v>
+        <v>12.6432</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9407.7968</v>
+        <v>-9702.839099999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.044</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.2487</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E9" s="1">
-        <v>5482.5963</v>
+        <v>5493.5778</v>
       </c>
       <c r="F9" s="1">
-        <v>864.0498</v>
+        <v>840.2289</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>72637.2733</v>
+        <v>72637.18489999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1447.5371</v>
+        <v>1154.207</v>
       </c>
       <c r="J9" s="1">
-        <v>74084.8104</v>
+        <v>73791.3919</v>
       </c>
       <c r="K9" s="1">
-        <v>69698.5414</v>
+        <v>69993.00260000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.7127</v>
+        <v>12.7409</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11447.5371</v>
+        <v>-11154.207</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.3991</v>
       </c>
       <c r="C10" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D10" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E10" s="1">
-        <v>6346.6461</v>
+        <v>6333.8068</v>
       </c>
       <c r="F10" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85039.3459</v>
+        <v>84697.5641</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>85039.3459</v>
+        <v>84697.5641</v>
       </c>
       <c r="K10" s="1">
-        <v>81146.0785</v>
+        <v>81147.2096</v>
       </c>
       <c r="L10" s="1">
-        <v>12.7857</v>
+        <v>12.8118</v>
       </c>
       <c r="M10" s="1">
         <v>0.4</v>
       </c>
       <c r="N10" s="1">
-        <v>1973.7347</v>
+        <v>1977.688</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8026.2653</v>
+        <v>-8022.312</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0114</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.5985</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E11" s="1">
-        <v>7092.9649</v>
+        <v>7078.6358</v>
       </c>
       <c r="F11" s="1">
-        <v>777.5515</v>
+        <v>807.6549</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96453.68309999999</v>
+        <v>96066.2898</v>
       </c>
       <c r="I11" s="1">
-        <v>1973.7347</v>
+        <v>1977.688</v>
       </c>
       <c r="J11" s="1">
-        <v>98427.4178</v>
+        <v>98043.97779999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91146.0785</v>
+        <v>91147.2096</v>
       </c>
       <c r="L11" s="1">
-        <v>12.8502</v>
+        <v>12.8764</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10573.5335</v>
+        <v>-11004.8633</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0356</v>
+        <v>0.0353</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.6955</v>
       </c>
       <c r="C12" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D12" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E12" s="1">
-        <v>7870.5164</v>
+        <v>7886.2907</v>
       </c>
       <c r="F12" s="1">
-        <v>791.6446</v>
+        <v>793.235</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107790.6568</v>
+        <v>107790.6096</v>
       </c>
       <c r="I12" s="1">
-        <v>1400.2011</v>
+        <v>972.8247</v>
       </c>
       <c r="J12" s="1">
-        <v>109190.8579</v>
+        <v>108763.4344</v>
       </c>
       <c r="K12" s="1">
-        <v>101719.612</v>
+        <v>102152.0729</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9241</v>
+        <v>12.9531</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10841.9682</v>
+        <v>-10885.4846</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.007</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.3398</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E13" s="1">
-        <v>8662.160900000001</v>
+        <v>8679.5257</v>
       </c>
       <c r="F13" s="1">
-        <v>791.4836</v>
+        <v>754.6733</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115551.4943</v>
+        <v>115551.3933</v>
       </c>
       <c r="I13" s="1">
-        <v>558.2329999999999</v>
+        <v>87.34010000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>116109.7272</v>
+        <v>115638.7335</v>
       </c>
       <c r="K13" s="1">
-        <v>112561.5802</v>
+        <v>113037.5575</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9946</v>
+        <v>13.0235</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2125.0394</v>
+        <v>2129.2985</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8433.193499999999</v>
+        <v>-7958.0417</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0259</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.8469</v>
       </c>
       <c r="C14" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D14" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E14" s="1">
-        <v>9453.6445</v>
+        <v>9434.198899999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9453.6445</v>
+        <v>-9434.198899999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121450.0259</v>
+        <v>120957.7514</v>
       </c>
       <c r="I14" s="1">
-        <v>2125.0394</v>
+        <v>2129.2985</v>
       </c>
       <c r="J14" s="1">
-        <v>123575.0653</v>
+        <v>123087.0499</v>
       </c>
       <c r="K14" s="1">
-        <v>123119.8131</v>
+        <v>123124.8976</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0235</v>
+        <v>13.0509</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121450.0259</v>
+        <v>120957.7514</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0201</v>
+        <v>-0.0203</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0293</v>
+        <v>13.0554</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0038</v>
+        <v>13.0302</v>
       </c>
       <c r="E3" s="1">
-        <v>13.013</v>
+        <v>13.0399</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0206</v>
+        <v>13.0462</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0235</v>
+        <v>13.0509</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0424</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1038</v>
+        <v>0.0915</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1029</v>
+        <v>0.0914</v>
       </c>
       <c r="E4" s="3">
-        <v>0.103</v>
+        <v>0.0912</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1033</v>
+        <v>0.0915</v>
       </c>
       <c r="G4" s="3">
-        <v>0.104</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1053</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1125</v>
+        <v>0.113</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1094</v>
+        <v>0.1102</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1103</v>
+        <v>0.111</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1111</v>
+        <v>0.1118</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1116</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.21</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7419</v>
+        <v>0.6304</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7548</v>
+        <v>0.6448</v>
       </c>
       <c r="E6" s="4">
-        <v>0.75</v>
+        <v>0.6388</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7466</v>
+        <v>0.6366000000000001</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7497</v>
+        <v>0.6382</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0558</v>
+        <v>0.048</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0595</v>
+        <v>0.0515</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0576</v>
+        <v>0.0495</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0562</v>
+        <v>0.0484</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0563</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5272.6842</v>
+        <v>5262.06</v>
       </c>
       <c r="D8" s="1">
-        <v>4999.2648</v>
+        <v>5008.1163</v>
       </c>
       <c r="E8" s="1">
-        <v>5079.3703</v>
+        <v>5088.3823</v>
       </c>
       <c r="F8" s="1">
-        <v>5161.2196</v>
+        <v>5170.3956</v>
       </c>
       <c r="G8" s="1">
-        <v>5244.8525</v>
+        <v>5254.1961</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P58_KFSDIV.xlsx
+++ b/output/1Y_P58_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6265.1478</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0008</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0563</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0265</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
